--- a/doc/pollynet_output_figures_info.xlsx
+++ b/doc/pollynet_output_figures_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
   <si>
     <t>Filename</t>
   </si>
@@ -57,9 +57,6 @@
     <t>{date-time}_DepolCali_{wavelength}.png</t>
   </si>
   <si>
-    <t>Depolarization calibration results</t>
-  </si>
-  <si>
     <t>2018_10_25_Thu_NOA_18_00_01_RCS_NR_355.png</t>
   </si>
   <si>
@@ -129,21 +126,9 @@
     <t>2018_10_25_Thu_NOA_00_00_01_LC_355.png</t>
   </si>
   <si>
-    <t>{polly_data_filename}_NR_{wavelength}.png</t>
-  </si>
-  <si>
-    <t>Range-corrected signal at certain wavelength in Near-Range channel</t>
-  </si>
-  <si>
-    <t>{polly_data_filename}_FR_{wavelength}.png</t>
-  </si>
-  <si>
     <t>{polly_data_filename}_VDR_{wavelength}.png</t>
   </si>
   <si>
-    <t>Range-corrected signal at certain wavelength in Far-Range channel</t>
-  </si>
-  <si>
     <t>{polly_data_filename}_SAT_FR_{wavelength}.png</t>
   </si>
   <si>
@@ -156,9 +141,6 @@
     <t>Signal status for each data bin</t>
   </si>
   <si>
-    <t>volume depolarization ratio for each data bin</t>
-  </si>
-  <si>
     <t>{polly_data_filename}_{starttime}_{endtime}_Bsc_{method}.png</t>
   </si>
   <si>
@@ -192,12 +174,6 @@
     <t>retrieved profiles of backscatter coefficient with certain method</t>
   </si>
   <si>
-    <t>retrieved profiles of depolarization ratio. It includes particles depolarization ratio inside wich can be retrieved with klett-bsc or raman_bsc</t>
-  </si>
-  <si>
-    <t>retrieved profiles of extinction coefficient with certain method</t>
-  </si>
-  <si>
     <t>retrieved profiles of lidar ratio with certain method</t>
   </si>
   <si>
@@ -237,9 +213,6 @@
     <t>{polly_data_filename}_LC_{wavelength}.png</t>
   </si>
   <si>
-    <t>attenuated backscatter at certain wavelength</t>
-  </si>
-  <si>
     <t>quasi-backscatter coefficient at 532 nm</t>
   </si>
   <si>
@@ -261,9 +234,6 @@
     <t>high-resolved water vapor mixing ratio data</t>
   </si>
   <si>
-    <t>lidar constants at certain wavelength</t>
-  </si>
-  <si>
     <t>pollyxt_lacros, pollyxt_fmi, pollyxt_uw, pollyxt_tropos, arielle</t>
   </si>
   <si>
@@ -271,6 +241,210 @@
   </si>
   <si>
     <t>polly_1v2</t>
+  </si>
+  <si>
+    <t>{polly_data_filename}_RCS_NR_{wavelength}.png</t>
+  </si>
+  <si>
+    <t>{polly_data_filename}_RCS_FR_{wavelength}.png</t>
+  </si>
+  <si>
+    <t>Depolarization calibration results for 355 and 532 nm</t>
+  </si>
+  <si>
+    <t>Signal status for each data bin at certain wavelength (355, 532 and 1064)</t>
+  </si>
+  <si>
+    <t>volume depolarization ratio for each data bin at certain wavelength (355, 532)</t>
+  </si>
+  <si>
+    <t>retrieved profiles of backscatter coefficient at certain wavelength (355, 532, 1064) with certain method (Klett, Raman and Aeronet)</t>
+  </si>
+  <si>
+    <t>retrieved profiles of lidar ratio with certain method at certain wavelength (355, 532) with Raman method</t>
+  </si>
+  <si>
+    <t>retrieved profiles of extinction coefficient with certain method (Klett or Raman method)</t>
+  </si>
+  <si>
+    <t>attenuated backscatter at certain wavelength (355, 532, 1064)</t>
+  </si>
+  <si>
+    <t>lidar constants at certain wavelength (355, 387, 532, 607 and 1064)</t>
+  </si>
+  <si>
+    <t>Depolarization calibration results at 532 nm</t>
+  </si>
+  <si>
+    <t>Range-corrected signal at 532 nm for Near-Range channel</t>
+  </si>
+  <si>
+    <t>Range-corrected signal at certain wavelength (355, 532, 1064) for Far-Range channel</t>
+  </si>
+  <si>
+    <t>Range-corrected signal at certain wavelength for Far-Range channel</t>
+  </si>
+  <si>
+    <t>Range-corrected signal at certain wavelength (355, 532) for Near-Range channel</t>
+  </si>
+  <si>
+    <t>Signal status at certain wavlength (355, 532 and 1064) for Far-Range channel</t>
+  </si>
+  <si>
+    <t>Signal status at 532 nm for Near-Range channel</t>
+  </si>
+  <si>
+    <t>volume depolarization ratio at 532 nm</t>
+  </si>
+  <si>
+    <t>retrieved profiles of Angstroem exponent with certain method (Klett or Raman method)</t>
+  </si>
+  <si>
+    <t>retrieved profiles of depolarization ratio. It includes particles depolarization ratio which is retrieved with backscatter profile with Klett or Raman method</t>
+  </si>
+  <si>
+    <t>retrieved profiles of extinction coefficient with certain method (Klett, Raman or Aeronet method)</t>
+  </si>
+  <si>
+    <t>attenuated backscatter at certain wavelength (355, 532 or 1064)</t>
+  </si>
+  <si>
+    <t>lidar constants at certain wavelength (355, 532 or 1064)</t>
+  </si>
+  <si>
+    <t>Range-corrected signal at 532 nm for Far-Range channel</t>
+  </si>
+  <si>
+    <t>Signal status at 532 nm</t>
+  </si>
+  <si>
+    <t>retrieved profiles of backscatter coefficient with certain method (Klett, Raman or RR)</t>
+  </si>
+  <si>
+    <t>retrieved profiles of extinction coefficient with certain method (Klett, Raman or RR)</t>
+  </si>
+  <si>
+    <t>retrieved profiles of lidar ratio with certain method (Raman or RR)</t>
+  </si>
+  <si>
+    <t>attenuated backscatter at 532 nm</t>
+  </si>
+  <si>
+    <t>lidar constants at 532 nm</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_monitor.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_RCS_NR_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_RCS_FR_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_SAT_FR_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_SAT_NR_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_VDR_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_1800_1859_Bsc_Klett.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_1800_1859_DepRatio_Klett.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_1800_1859_Ext_Raman.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_1800_1859_LR_Raman.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_1800_1859_Meteor_P.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_1800_1859_SIG.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_ATT_BETA_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_Quasi_Bsc_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_12_20_00_Quasi_PDR_532.png</t>
+  </si>
+  <si>
+    <t>2016_08_02_Tue_1v2_18_00_00_LC_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_00_00_31_monitor.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_00_00_31_overlap.png</t>
+  </si>
+  <si>
+    <t>20190219-0905_DepolCali_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_RCS_FR_1064.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_RCS_NR_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_SAT_FR_1064.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_SAT_NR_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_VDR_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_ANGEXP_Klett.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_Bsc_Klett.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_DepRatio_Raman.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_Ext_Aeronet.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_LR_Raman.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_Meteor_P.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_1800_1856_SIG.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_ATT_BETA_355.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_Quasi_Bsc_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_Quasi_ANGEXP_532_1064.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_Quasi_Bsc_1064.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_Quasi_PDR_532.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_TC.png</t>
+  </si>
+  <si>
+    <t>2019_02_19_Tue_DWD_18_00_31_LC_532.png</t>
   </si>
 </sst>
 </file>
@@ -512,26 +686,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="5" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -540,6 +716,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,15 +732,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
@@ -846,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,791 +1035,791 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="16"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>12</v>
+      <c r="D4" s="24" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>37</v>
+      <c r="B5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
-      <c r="B6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>40</v>
+      <c r="B6" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="16"/>
-      <c r="B7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>44</v>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="16"/>
-      <c r="B8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>44</v>
+      <c r="B8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>45</v>
+      <c r="B9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="16"/>
-      <c r="B10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>47</v>
+      <c r="B10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>56</v>
+      <c r="B11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
-      <c r="B12" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>57</v>
+      <c r="B12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
-      <c r="B13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>58</v>
+      <c r="B13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
-      <c r="B14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>59</v>
+      <c r="B14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>53</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="16"/>
-      <c r="B19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>72</v>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="16"/>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="16"/>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="16"/>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="16"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="16"/>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17"/>
-      <c r="B27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+      <c r="B29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+      <c r="B30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+      <c r="B31" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+      <c r="B32" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+      <c r="B33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+      <c r="B34" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
+      <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="5" t="s">
+      <c r="C35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="19"/>
+      <c r="B36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+      <c r="B37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
+      <c r="B39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
+      <c r="B40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="19"/>
+      <c r="B41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="19"/>
+      <c r="B42" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+      <c r="B43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="19"/>
+      <c r="B44" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+      <c r="B45" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+      <c r="B46" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+      <c r="B47" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
+      <c r="B48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="19"/>
+      <c r="B49" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="21"/>
+      <c r="B51" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="21"/>
+      <c r="B52" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="21"/>
+      <c r="B53" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="C53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="21"/>
+      <c r="B54" s="7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9" t="s">
+      <c r="C54" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="21"/>
+      <c r="B55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="21"/>
+      <c r="B56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="21"/>
+      <c r="B57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="21"/>
+      <c r="B58" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="21"/>
+      <c r="B59" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="21"/>
+      <c r="B60" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="21"/>
+      <c r="B61" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="21"/>
+      <c r="B62" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="C62" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="21"/>
+      <c r="B63" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="11" t="s">
+      <c r="C63" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="21"/>
+      <c r="B64" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9" t="s">
+      <c r="C64" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
-      <c r="B51" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
-      <c r="B53" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="19"/>
-      <c r="B54" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
-      <c r="B55" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
-      <c r="B56" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
-      <c r="B57" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="19"/>
-      <c r="B58" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
-      <c r="B59" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="19"/>
-      <c r="B62" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="20"/>
-      <c r="B65" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>80</v>
+      <c r="A65" s="22"/>
+      <c r="B65" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="25" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
